--- a/results/DecoResults/all.xlsx
+++ b/results/DecoResults/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Desis</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Network Utilizatioin</t>
+  </si>
+  <si>
+    <t>single round</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>92 is the minimum, it also can be 93 or 94 but it usually be 92</t>
   </si>
 </sst>
 </file>
@@ -234,13 +249,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,13 +564,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.453125" style="2" customWidth="1"/>
@@ -602,11 +617,11 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -827,11 +842,11 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1106,12 +1121,12 @@
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -1254,11 +1269,11 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1415,7 +1430,7 @@
       <c r="C53" s="11">
         <v>7564.43</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>43717.599999999999</v>
       </c>
       <c r="E53" s="10"/>
@@ -1457,7 +1472,9 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
+      <c r="A57" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1475,7 +1492,9 @@
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+      <c r="A58" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1493,8 +1512,12 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -1511,8 +1534,12 @@
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="10">
+        <v>92</v>
+      </c>
+      <c r="B60" s="10">
+        <v>94</v>
+      </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -1529,7 +1556,9 @@
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+      <c r="A61" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2510,12 +2539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/results/DecoResults/all.xlsx
+++ b/results/DecoResults/all.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" tabRatio="532"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="532" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
   <si>
     <t>Desis</t>
   </si>
@@ -148,6 +150,165 @@
   </si>
   <si>
     <t>92 is the minimum, it also can be 93 or 94 but it usually be 92</t>
+  </si>
+  <si>
+    <t>Scalability-single query</t>
+  </si>
+  <si>
+    <t>size 1 sec</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Total(Byte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumbling </t>
+  </si>
+  <si>
+    <t>Network-single query</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>DecoAsy</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Root-Byte</t>
+  </si>
+  <si>
+    <t>Throughput Overall</t>
+  </si>
+  <si>
+    <t>size 1 M</t>
+  </si>
+  <si>
+    <t>event rate 1%</t>
+  </si>
+  <si>
+    <t>1 local nodes cluster</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>11.328 / 1024</t>
+  </si>
+  <si>
+    <t>Event Rate Change</t>
+  </si>
+  <si>
+    <t>DeBuffer</t>
+  </si>
+  <si>
+    <t>DecoSy</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>9238807.6 /2</t>
+  </si>
+  <si>
+    <t>9234489 /2</t>
+  </si>
+  <si>
+    <t>9135418.6 /2</t>
+  </si>
+  <si>
+    <t>9117314.833 /2</t>
+  </si>
+  <si>
+    <t>3 node cluster, can not make use of multiple local nodes</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>Network (every cell multple 2)</t>
+  </si>
+  <si>
+    <t>Throughput (every cell multple 2)</t>
+  </si>
+  <si>
+    <t>MB &amp; GB</t>
+  </si>
+  <si>
+    <t>Window Size Change</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>CeBuffer</t>
+  </si>
+  <si>
+    <t>1 second tumbling</t>
+  </si>
+  <si>
+    <t>10 keys</t>
+  </si>
+  <si>
+    <t>1000 windows</t>
+  </si>
+  <si>
+    <t>NanoSec</t>
+  </si>
+  <si>
+    <t>1 windows</t>
+  </si>
+  <si>
+    <t>Network Overhead</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Tuples</t>
+  </si>
+  <si>
+    <t>99.208 mb</t>
+  </si>
+  <si>
+    <t>32.36 b</t>
+  </si>
+  <si>
+    <t>32.7 kb</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>throughput</t>
   </si>
 </sst>
 </file>
@@ -177,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,11 +370,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,10 +437,50 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,29 +789,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="14" width="8.90625" style="2"/>
-    <col min="15" max="15" width="15.1796875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.08984375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.90625" style="2"/>
+    <col min="11" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -604,7 +829,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -616,12 +841,12 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -630,7 +855,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12">
         <v>1</v>
@@ -660,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -692,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -722,7 +947,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -734,7 +959,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -762,7 +987,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
@@ -790,7 +1015,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -818,7 +1043,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -830,7 +1055,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -841,12 +1066,12 @@
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -855,7 +1080,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
@@ -883,7 +1108,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -913,7 +1138,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -943,7 +1168,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -963,7 +1188,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5">
         <v>2.98</v>
@@ -989,7 +1214,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2.98</v>
       </c>
@@ -1013,11 +1238,11 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12">
         <v>2</v>
@@ -1037,7 +1262,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1284,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1306,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>11.89</v>
       </c>
@@ -1095,7 +1320,7 @@
         <v>47.56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>2.98</v>
       </c>
@@ -1109,27 +1334,27 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1403,7 @@
         <v>622017.147</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1429,7 @@
         <v>516726.73</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1214,7 +1439,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1232,7 +1457,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1250,7 +1475,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1268,12 +1493,12 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1288,7 +1513,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>11</v>
@@ -1312,7 +1537,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1563,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1589,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="5">
         <v>7150.4</v>
@@ -1388,7 +1613,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>0</v>
@@ -1402,7 +1627,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1412,7 +1637,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1422,7 +1647,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>36153.17</v>
@@ -1438,7 +1663,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11">
@@ -1451,7 +1676,7 @@
       <c r="H54" s="10"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1461,7 +1686,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1471,7 +1696,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>41</v>
       </c>
@@ -1491,7 +1716,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>39</v>
       </c>
@@ -1511,7 +1736,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1758,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>92</v>
       </c>
@@ -1555,7 +1780,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +1800,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1593,7 +1818,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1611,7 +1836,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1629,7 +1854,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1647,12 +1872,14 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -1665,12 +1892,20 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -1683,12 +1918,22 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="7">
+        <v>108941</v>
+      </c>
+      <c r="C68" s="7">
+        <v>71705</v>
+      </c>
+      <c r="D68" s="7">
+        <v>137256</v>
+      </c>
+      <c r="E68" s="7">
+        <v>317902</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -1701,12 +1946,22 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7">
+        <v>227278</v>
+      </c>
+      <c r="C69" s="7">
+        <v>387587</v>
+      </c>
+      <c r="D69" s="7">
+        <v>41152</v>
+      </c>
+      <c r="E69" s="7">
+        <v>656017</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -1719,12 +1974,22 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>45936</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45936</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -1737,12 +2002,22 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7">
+        <v>251758699</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>251758699</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -1755,12 +2030,12 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -1773,12 +2048,20 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -1791,12 +2074,22 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+    <row r="74" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="7">
+        <v>54643571</v>
+      </c>
+      <c r="C74" s="7">
+        <v>6018705</v>
+      </c>
+      <c r="D74" s="7">
+        <v>116681</v>
+      </c>
+      <c r="E74" s="7">
+        <v>60778957</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -1809,12 +2102,22 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="7">
+        <v>6195624</v>
+      </c>
+      <c r="C75" s="7">
+        <v>11012987</v>
+      </c>
+      <c r="D75" s="7">
+        <v>600179</v>
+      </c>
+      <c r="E75" s="7">
+        <v>17808790</v>
+      </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -1827,12 +2130,22 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
+    <row r="76" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7">
+        <v>60474</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>60474</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -1845,12 +2158,22 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+    <row r="77" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="7">
+        <v>420778408</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>420778408</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -1863,7 +2186,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1881,7 +2204,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1899,7 +2222,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1917,7 +2240,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1935,7 +2258,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1953,7 +2276,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1971,7 +2294,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1989,7 +2312,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2007,7 +2330,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2025,7 +2348,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2043,7 +2366,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2061,7 +2384,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2079,7 +2402,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2097,7 +2420,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2115,7 +2438,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2133,7 +2456,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2151,7 +2474,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2169,7 +2492,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2187,7 +2510,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2205,7 +2528,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2223,7 +2546,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2241,7 +2564,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2259,7 +2582,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2277,7 +2600,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2295,7 +2618,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2313,7 +2636,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2331,7 +2654,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2349,7 +2672,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -2359,7 +2682,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -2369,7 +2692,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -2379,7 +2702,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -2389,7 +2712,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -2399,7 +2722,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -2409,7 +2732,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -2419,7 +2742,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -2429,7 +2752,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -2439,7 +2762,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -2449,7 +2772,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -2459,7 +2782,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -2469,7 +2792,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -2479,7 +2802,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -2489,7 +2812,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -2499,7 +2822,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -2510,11 +2833,12 @@
       <c r="H169" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A66:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2523,208 +2847,2280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7">
+        <v>11714958.475</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1745316.8</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8304926</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3268487.8310066601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>108941</v>
-      </c>
-      <c r="C3" s="7">
-        <v>71705</v>
-      </c>
-      <c r="D3" s="7">
-        <v>137256</v>
-      </c>
-      <c r="E3" s="7">
-        <v>317902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="F9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>142114.96</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>201981.6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>344096.56</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>227278</v>
-      </c>
-      <c r="C4" s="7">
-        <v>387587</v>
-      </c>
-      <c r="D4" s="7">
-        <v>41152</v>
-      </c>
-      <c r="E4" s="7">
-        <v>656017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1.151</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>45936</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B12" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B13" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
+        <v>255</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="7">
+        <v>9481369.1089999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11714958.475</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18962738.219999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>28444107.329999998</v>
+      </c>
+      <c r="E19" s="7">
+        <v>37925476.439999998</v>
+      </c>
+      <c r="F19" s="7">
+        <v>47406845.549999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>56888214.659999996</v>
+      </c>
+      <c r="H19" s="7">
+        <v>66369583.770000003</v>
+      </c>
+      <c r="I19" s="6">
+        <v>75850952.879999995</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1745316.8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1758634.4</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1731277.2960000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1747254.91</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1740140.64</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1761900.8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1775221.9</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1760157.36</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8304926</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8398916</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8288468.0300000003</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8394990</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8246141.96</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8281877.5716000004</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8302153.9699999997</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8389027.4299999997</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3268487.8310066601</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3270697.1490000002</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3291610.9</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3295282.32</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3308962.22</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3311921.6189999999</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3298082.798</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3246734.8988999999</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="7">
+        <v>11717428.23</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2516295.5789999999</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2516295.5789999999</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11692164</v>
+      </c>
+      <c r="C34" s="7">
+        <v>116</v>
+      </c>
+      <c r="D34" s="7">
+        <v>116</v>
+      </c>
+      <c r="E34" s="7">
+        <v>232</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7480600</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3478</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3478</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6956</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.675</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1681522</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1601200000</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1601200000</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3202400000</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1681522</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1601200000</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1601200000</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3202400000</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="7">
+        <v>61.49</v>
+      </c>
+      <c r="D40" s="7">
+        <v>92.23</v>
+      </c>
+      <c r="E40" s="7">
+        <v>122.98</v>
+      </c>
+      <c r="F40" s="7">
+        <v>153.72999999999999</v>
+      </c>
+      <c r="G40" s="7">
+        <v>184.47</v>
+      </c>
+      <c r="H40" s="7">
+        <v>215.22</v>
+      </c>
+      <c r="I40" s="7">
+        <v>245.97</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1.675</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="F41" s="7">
+        <v>8.375</v>
+      </c>
+      <c r="G41" s="7">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H41" s="7">
+        <v>11.725</v>
+      </c>
+      <c r="I41" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="E42" s="7">
+        <v>5.96</v>
+      </c>
+      <c r="F42" s="7">
+        <v>7.45</v>
+      </c>
+      <c r="G42" s="7">
+        <v>8.94</v>
+      </c>
+      <c r="H42" s="7">
+        <v>10.43</v>
+      </c>
+      <c r="I42" s="7">
+        <v>11.92</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5.96</v>
+      </c>
+      <c r="F43" s="7">
+        <v>7.45</v>
+      </c>
+      <c r="G43" s="7">
+        <v>8.94</v>
+      </c>
+      <c r="H43" s="7">
+        <v>10.43</v>
+      </c>
+      <c r="I43" s="7">
+        <v>11.92</v>
+      </c>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1692164</v>
+      </c>
+      <c r="C47" s="7">
+        <v>11.89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7480600</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1.675</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1681522</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49">
+        <v>30.746400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1681522</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7">
+        <v>11.89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="7">
+        <v>11.15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="22">
+        <v>1</v>
+      </c>
+      <c r="D63" s="22">
+        <v>5</v>
+      </c>
+      <c r="E63" s="22">
+        <v>10</v>
+      </c>
+      <c r="F63" s="22">
+        <v>50</v>
+      </c>
+      <c r="G63" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="7">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7">
+        <v>17</v>
+      </c>
+      <c r="E67" s="7">
+        <v>18</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="23">
+        <v>8.5470000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C71" s="22">
+        <v>1</v>
+      </c>
+      <c r="D71" s="22">
+        <v>5</v>
+      </c>
+      <c r="E71" s="22">
+        <v>10</v>
+      </c>
+      <c r="F71" s="22">
+        <v>50</v>
+      </c>
+      <c r="G71" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="C72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="D72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="E72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="F72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="G72" s="7">
+        <v>11936321.960000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4171906.07</v>
+      </c>
+      <c r="C73" s="22">
+        <v>4121660.3652738999</v>
+      </c>
+      <c r="D73" s="22">
+        <v>4081332.26</v>
+      </c>
+      <c r="E73" s="22">
+        <v>4138029.47</v>
+      </c>
+      <c r="F73" s="22">
+        <v>4122142.6</v>
+      </c>
+      <c r="G73" s="22">
+        <v>4148405.5040000002</v>
+      </c>
+      <c r="H73" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="I73" s="27">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="7">
+        <v>5614896.7599999998</v>
+      </c>
+      <c r="C74" s="7">
+        <v>5731987.0760000004</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5655939.3779999996</v>
+      </c>
+      <c r="E74" s="7">
+        <v>5579072.0980000002</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="I74" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="7">
+        <v>9655895.5299999993</v>
+      </c>
+      <c r="C75" s="7">
+        <v>9481369.1089999992</v>
+      </c>
+      <c r="D75" s="7">
+        <v>9226051.6600000001</v>
+      </c>
+      <c r="E75" s="7">
+        <v>9436779.9749999996</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C79" s="22">
+        <v>1</v>
+      </c>
+      <c r="D79" s="22">
+        <v>5</v>
+      </c>
+      <c r="E79" s="22">
+        <v>10</v>
+      </c>
+      <c r="F79" s="22">
+        <v>50</v>
+      </c>
+      <c r="G79" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="D80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="C81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="E81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="F81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="G81" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3.07464</v>
+      </c>
+      <c r="C82" s="7">
+        <v>30.746400000000001</v>
+      </c>
+      <c r="D82" s="7">
+        <v>153.732</v>
+      </c>
+      <c r="E82" s="7">
+        <v>307.464</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3.07464</v>
+      </c>
+      <c r="C83" s="7">
+        <v>30.746400000000001</v>
+      </c>
+      <c r="D83" s="7">
+        <v>153.732</v>
+      </c>
+      <c r="E83" s="7">
+        <v>307.464</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="H83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C89" s="22">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="22">
+        <v>100000</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+      <c r="C92" s="7">
+        <v>0</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="7">
+        <v>17</v>
+      </c>
+      <c r="C93" s="7">
+        <v>18</v>
+      </c>
+      <c r="D93" s="7">
+        <v>17</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="23">
+        <v>8.5470000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C97" s="22">
+        <v>10000</v>
+      </c>
+      <c r="D97" s="22">
+        <v>100000</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="C98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="D98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="E98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="F98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+      <c r="G98" s="7">
+        <v>11936321.960000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="7">
+        <v>7106.07</v>
+      </c>
+      <c r="C99" s="22">
+        <v>71660.365273899995</v>
+      </c>
+      <c r="D99" s="22">
+        <v>651332.26</v>
+      </c>
+      <c r="E99" s="22">
+        <v>4138029.47</v>
+      </c>
+      <c r="F99" s="22">
+        <v>9112212.5999999996</v>
+      </c>
+      <c r="G99" s="22">
+        <v>9148405.5040000007</v>
+      </c>
+      <c r="H99" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="I99" s="27">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="7">
+        <v>114896.76</v>
+      </c>
+      <c r="C100" s="7">
+        <v>131987.076</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1259139.378</v>
+      </c>
+      <c r="E100" s="7">
+        <v>5579072.0980000002</v>
+      </c>
+      <c r="F100" s="7">
+        <v>9135418.5999999996</v>
+      </c>
+      <c r="G100" s="7">
+        <v>9238807.5999999996</v>
+      </c>
+      <c r="H100" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="I100" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="7">
+        <v>15895.53</v>
+      </c>
+      <c r="C101" s="7">
+        <v>151369.109</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1526051.66</v>
+      </c>
+      <c r="E101" s="7">
+        <v>9436779.9749999996</v>
+      </c>
+      <c r="F101" s="7">
+        <v>9117314.8330000006</v>
+      </c>
+      <c r="G101" s="7">
+        <v>9234489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C105" s="22">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="22">
+        <v>100000</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="C106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="D106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="E106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="F106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="G106" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="C107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="D107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="E107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="F107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="G107" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="7">
+        <v>3.07464</v>
+      </c>
+      <c r="C108" s="7">
+        <v>30.746400000000001</v>
+      </c>
+      <c r="D108" s="7">
+        <v>153.732</v>
+      </c>
+      <c r="E108" s="7">
+        <v>307.464</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="7">
+        <v>3.07464</v>
+      </c>
+      <c r="C109" s="7">
+        <v>30.746400000000001</v>
+      </c>
+      <c r="D109" s="7">
+        <v>153.732</v>
+      </c>
+      <c r="E109" s="7">
+        <v>307.464</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G109" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16">
+        <v>1</v>
+      </c>
+      <c r="C117" s="16">
+        <v>2</v>
+      </c>
+      <c r="D117" s="16">
+        <v>3</v>
+      </c>
+      <c r="E117" s="16">
+        <v>4</v>
+      </c>
+      <c r="F117" s="16">
+        <v>5</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="C118" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="D118" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="E118" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="F118" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3219430.0754999998</v>
+      </c>
+      <c r="C119" s="5">
+        <v>3219869.18</v>
+      </c>
+      <c r="D119" s="5">
+        <v>3219108.58</v>
+      </c>
+      <c r="E119" s="5">
+        <v>3206066.34</v>
+      </c>
+      <c r="F119" s="5">
+        <v>3188692.59</v>
+      </c>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="5">
+        <v>471790.27</v>
+      </c>
+      <c r="C120" s="5">
+        <v>943499.522</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1415421.75</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1886986.76</v>
+      </c>
+      <c r="F120" s="5">
+        <v>2358644.5</v>
+      </c>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="5">
+        <v>6439577.1299000001</v>
+      </c>
+      <c r="C121" s="5">
+        <v>12877619.699999999</v>
+      </c>
+      <c r="D121" s="5">
+        <v>19317240.372000001</v>
+      </c>
+      <c r="E121" s="5">
+        <v>25724138.539999999</v>
+      </c>
+      <c r="F121" s="5">
+        <v>32115564.899999999</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="7">
         <v>251758699</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>251758699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7">
-        <v>54643571</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6018705</v>
-      </c>
-      <c r="D9" s="7">
-        <v>116681</v>
-      </c>
-      <c r="E9" s="7">
-        <v>60778957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
-        <v>6195624</v>
-      </c>
-      <c r="C10" s="7">
-        <v>11012987</v>
-      </c>
-      <c r="D10" s="7">
-        <v>600179</v>
-      </c>
-      <c r="E10" s="7">
-        <v>17808790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B126" s="7">
+        <v>471724.14980000001</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
-        <v>60474</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>60474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7">
-        <v>420778408</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>420778408</v>
+      <c r="B127" s="7">
+        <v>341152</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="16">
+        <v>174553.72</v>
+      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="5">
+        <v>52091988.3369487</v>
+      </c>
+      <c r="C134" s="5">
+        <v>52086786.423644401</v>
+      </c>
+      <c r="D134" s="5">
+        <v>104178774.76000001</v>
+      </c>
+      <c r="E134" s="5">
+        <v>3219869.18</v>
+      </c>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="5">
+        <v>52010110.113016702</v>
+      </c>
+      <c r="C135" s="5">
+        <v>52017345.401164599</v>
+      </c>
+      <c r="D135" s="5">
+        <v>104027455.51000001</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3219430.0754999998</v>
+      </c>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="16">
+        <v>16.18</v>
+      </c>
+      <c r="C136" s="16">
+        <v>16.18</v>
+      </c>
+      <c r="D136" s="16">
+        <v>32.36</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="5">
+        <v>16744.109</v>
+      </c>
+      <c r="C137" s="5">
+        <v>16744.109</v>
+      </c>
+      <c r="D137" s="5">
+        <v>33488.218000000001</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="5">
+        <v>49.678789999999999</v>
+      </c>
+      <c r="C139" s="5">
+        <v>49.6738</v>
+      </c>
+      <c r="D139" s="5">
+        <v>99.352599999999995</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5">
+        <v>49.6</v>
+      </c>
+      <c r="C140" s="5">
+        <v>49.607599999999998</v>
+      </c>
+      <c r="D140" s="5">
+        <v>99.207999999999998</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="5">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="C141" s="5">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="16">
+        <v>16.18</v>
+      </c>
+      <c r="C142" s="16">
+        <v>16.18</v>
+      </c>
+      <c r="D142" s="16">
+        <v>32.36</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16">
+        <v>1</v>
+      </c>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" s="7">
+        <v>46494.372000000003</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="5">
+        <v>3219430.0754999998</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="5">
+        <v>471790.27</v>
+      </c>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="5">
+        <v>4295484.7</v>
+      </c>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2734,7 +5130,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/DecoResults/all.xlsx
+++ b/results/DecoResults/all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="532" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="532" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="97">
   <si>
     <t>Desis</t>
   </si>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -449,14 +449,8 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,9 +465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,6 +473,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:I16"/>
     </sheetView>
   </sheetViews>
@@ -842,11 +845,11 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1067,11 +1070,11 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1346,12 +1349,12 @@
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -1494,11 +1497,11 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1873,12 +1876,12 @@
       <c r="P65" s="10"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="8"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -2847,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,14 +2866,14 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -2923,12 +2926,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -3051,12 +3054,12 @@
       <c r="H13" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="1"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -3222,12 +3225,12 @@
       <c r="J22" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -3680,43 +3683,43 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20">
         <v>0.1</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="20">
         <v>1</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="20">
         <v>5</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="20">
         <v>10</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="20">
         <v>50</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="7">
@@ -3739,7 +3742,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="7">
@@ -3785,7 +3788,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="7">
@@ -3806,62 +3809,62 @@
       <c r="G67" s="7">
         <v>0</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J67" s="21">
         <v>8.5470000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20">
         <v>0.1</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="20">
         <v>1</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="20">
         <v>5</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="20">
         <v>10</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="20">
         <v>50</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B72" s="7">
@@ -3884,31 +3887,31 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="7">
         <v>4171906.07</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="20">
         <v>4121660.3652738999</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="20">
         <v>4081332.26</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="20">
         <v>4138029.47</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="20">
         <v>4122142.6</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="20">
         <v>4148405.5040000002</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="24">
         <v>0.25</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="24">
         <v>230</v>
       </c>
     </row>
@@ -3928,21 +3931,21 @@
       <c r="E74" s="7">
         <v>5579072.0980000002</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="28">
+      <c r="H74" s="25">
         <v>0.45</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="25">
         <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B75" s="7">
@@ -3957,10 +3960,10 @@
       <c r="E75" s="7">
         <v>9436779.9749999996</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3970,39 +3973,39 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20">
         <v>0.1</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="20">
         <v>1</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="20">
         <v>5</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="20">
         <v>10</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="20">
         <v>50</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B80" s="7">
@@ -4028,7 +4031,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="7">
@@ -4080,7 +4083,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B83" s="7">
@@ -4106,43 +4109,43 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20">
         <v>1000</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="20">
         <v>10000</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="20">
         <v>100000</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="F89" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B90" s="7">
@@ -4165,7 +4168,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="7">
@@ -4211,7 +4214,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="7">
@@ -4232,62 +4235,62 @@
       <c r="G93" s="7">
         <v>0</v>
       </c>
-      <c r="J93" s="23">
+      <c r="J93" s="21">
         <v>8.5470000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20">
         <v>1000</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="20">
         <v>10000</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="20">
         <v>100000</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B98" s="7">
@@ -4310,31 +4313,31 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="7">
         <v>7106.07</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="20">
         <v>71660.365273899995</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="20">
         <v>651332.26</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="20">
         <v>4138029.47</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="20">
         <v>9112212.5999999996</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="20">
         <v>9148405.5040000007</v>
       </c>
-      <c r="H99" s="27">
+      <c r="H99" s="24">
         <v>0.25</v>
       </c>
-      <c r="I99" s="27">
+      <c r="I99" s="24">
         <v>230</v>
       </c>
     </row>
@@ -4360,15 +4363,15 @@
       <c r="G100" s="7">
         <v>9238807.5999999996</v>
       </c>
-      <c r="H100" s="28">
+      <c r="H100" s="25">
         <v>0.45</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="25">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B101" s="7">
@@ -4396,39 +4399,39 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20">
         <v>1000</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="20">
         <v>10000</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="20">
         <v>100000</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B106" s="7">
@@ -4454,7 +4457,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B107" s="7">
@@ -4506,7 +4509,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B109" s="7">
@@ -4532,14 +4535,14 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
@@ -4688,14 +4691,14 @@
       <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
@@ -4782,342 +4785,492 @@
       <c r="I129" s="16"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
+      <c r="A130" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
       <c r="G130" s="16"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="7">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7">
+        <v>2</v>
+      </c>
+      <c r="D131" s="7">
+        <v>3</v>
+      </c>
+      <c r="E131" s="7">
+        <v>4</v>
+      </c>
+      <c r="F131" s="7">
+        <v>5</v>
+      </c>
+      <c r="G131" s="7">
+        <v>6</v>
+      </c>
+      <c r="H131" s="7">
+        <v>7</v>
+      </c>
+      <c r="I131" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="C132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="D132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="E132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="F132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="G132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="H132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+      <c r="I132" s="7">
+        <v>255241112.00999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="E133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="G133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="H133" s="7">
+        <v>1151618.7</v>
+      </c>
+      <c r="I133" s="7">
+        <v>1151618.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="C134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="D134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="E134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="F134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="G134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="H134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+      <c r="I134" s="7">
+        <v>566244.12899999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" s="7">
+        <v>486211.52</v>
+      </c>
+      <c r="C135" s="7">
+        <v>345579.56</v>
+      </c>
+      <c r="D135" s="7">
+        <v>2846298.88</v>
+      </c>
+      <c r="E135" s="7">
+        <v>2658417.3199999998</v>
+      </c>
+      <c r="F135" s="7">
+        <v>2916684.9</v>
+      </c>
+      <c r="G135" s="7">
+        <v>3380503.2790000001</v>
+      </c>
+      <c r="H135" s="7">
+        <v>361353.36599999998</v>
+      </c>
+      <c r="I135" s="7">
+        <v>3825940.037</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="7">
+        <v>142114.96</v>
+      </c>
+      <c r="C139" s="7">
+        <v>344096.56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16" t="s">
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C146" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D146" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E146" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16" t="s">
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B147" s="5">
         <v>52091988.3369487</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C147" s="5">
         <v>52086786.423644401</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D147" s="5">
         <v>104178774.76000001</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E147" s="5">
         <v>3219869.18</v>
       </c>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16" t="s">
+      <c r="F147" s="16"/>
+      <c r="G147" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16" t="s">
+      <c r="H147" s="16"/>
+      <c r="I147" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B148" s="5">
         <v>52010110.113016702</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C148" s="5">
         <v>52017345.401164599</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D148" s="5">
         <v>104027455.51000001</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E148" s="5">
         <v>3219430.0754999998</v>
       </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16" t="s">
+      <c r="F148" s="16"/>
+      <c r="G148" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16" t="s">
+      <c r="H148" s="16"/>
+      <c r="I148" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B149" s="16">
         <v>16.18</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C149" s="16">
         <v>16.18</v>
       </c>
-      <c r="D136" s="16">
+      <c r="D149" s="16">
         <v>32.36</v>
       </c>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16" t="s">
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16" t="s">
+      <c r="H149" s="16"/>
+      <c r="I149" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="5">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="5">
         <v>16744.109</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C150" s="5">
         <v>16744.109</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D150" s="5">
         <v>33488.218000000001</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16" t="s">
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="16" t="s">
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B152" s="5">
         <v>49.678789999999999</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C152" s="5">
         <v>49.6738</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D152" s="5">
         <v>99.352599999999995</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E152" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="s">
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B153" s="5">
         <v>49.6</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C153" s="5">
         <v>49.607599999999998</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D153" s="5">
         <v>99.207999999999998</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E153" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="16" t="s">
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B154" s="5">
         <v>16.350000000000001</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C154" s="5">
         <v>16.350000000000001</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D154" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E154" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="16">
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="16">
         <v>16.18</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C155" s="16">
         <v>16.18</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D155" s="16">
         <v>32.36</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E155" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="16">
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18">
         <v>1</v>
       </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="s">
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B161" s="7">
         <v>46494.372000000003</v>
       </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16" t="s">
+      <c r="G161" s="18"/>
+      <c r="H161" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B162" s="5">
         <v>3219430.0754999998</v>
       </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16" t="s">
+      <c r="G162" s="18"/>
+      <c r="H162" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B163" s="5">
         <v>471790.27</v>
       </c>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16" t="s">
+      <c r="G163" s="18"/>
+      <c r="H163" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="5">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="5">
         <v>4295484.7</v>
       </c>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16" t="s">
+      <c r="G164" s="18"/>
+      <c r="H164" s="18" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A145:F145"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
